--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_23_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_23_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>890890.2769848494</v>
+        <v>929663.9340859163</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4888794.453803538</v>
+        <v>7558307.070167584</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9695759.993867664</v>
+        <v>8453391.791395467</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V2" t="n">
-        <v>165.7970289519853</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>53.22116080616951</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663201</v>
+        <v>2.252236434189538</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.00402729331236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>157.0631548162467</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.87073484362677</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>200.4727983501226</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -986,10 +986,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>186.8101635945735</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>103.7663302454626</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.854692234071626</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>178.1144279563372</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>286.2791481607758</v>
+        <v>359.2397996120424</v>
       </c>
       <c r="G8" t="n">
-        <v>11.67617159448328</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>302.3342338808922</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>70.66270691447852</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>126.3796986693932</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0555276341844</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>86.36603912678521</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1226,7 +1226,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4031333312317</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>135.6413924703699</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>177.7152040405711</v>
+        <v>225.8137252499236</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>36.51449565675967</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>54.17279198384298</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.98401099232944</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.28665244236456</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.9949191299503</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2302973952356</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0.2904874124741172</v>
       </c>
       <c r="X11" t="n">
-        <v>193.6959022530821</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851184</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>128.3412890356165</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>124.4808309317258</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>251.2856593713761</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>274.3393327866108</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851184</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>143.1426779519978</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>53.54735467376837</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>57.92518451681134</v>
+        <v>100.9068926882547</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>75.94848555066385</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>43.84107301082098</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>48.41158742398178</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>17.35112070699488</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>127.649678780763</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>116.5631275042182</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>199.7325946875385</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>20.95866062610969</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>148.4344942516662</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>340.6283200743434</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>295.3683824677681</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>87.93270968653101</v>
       </c>
       <c r="X28" t="n">
-        <v>185.8117075282591</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>168.1158122680958</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>168.1158122680954</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>20.95866062610927</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>58.28185552386317</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>339.0189008308752</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>72.5717110591501</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>24.20805889351881</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.38664856090008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>83.94070182407765</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>265.9318059937542</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>115.8425271943766</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3381448564496</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>131.6288405191004</v>
+        <v>173.0840193652023</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>47.38664856090098</v>
+        <v>160.8915086215179</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,10 +3745,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>173.5578851713665</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>122.0638233923837</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>170.0803200196916</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>54.51165059784242</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>260.8334463828062</v>
+        <v>80.91371583001734</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>19.52918235370601</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>344.3906707271974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C2" t="n">
-        <v>344.3906707271974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D2" t="n">
-        <v>344.3906707271974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E2" t="n">
-        <v>344.3906707271974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107124</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262261</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433441</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T2" t="n">
-        <v>511.8624171433441</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="U2" t="n">
-        <v>511.8624171433441</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="V2" t="n">
-        <v>344.3906707271974</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="W2" t="n">
-        <v>344.3906707271974</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="X2" t="n">
-        <v>344.3906707271974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y2" t="n">
-        <v>344.3906707271974</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>338.7084783396673</v>
+        <v>485.2430363127824</v>
       </c>
       <c r="C3" t="n">
-        <v>338.7084783396673</v>
+        <v>485.2430363127824</v>
       </c>
       <c r="D3" t="n">
-        <v>189.774068678416</v>
+        <v>336.3086266515311</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296051</v>
+        <v>177.0711716460756</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296051</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296051</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296051</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296051</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652804</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652804</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652804</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652804</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652804</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652804</v>
+        <v>487.5180226099435</v>
       </c>
       <c r="X3" t="n">
-        <v>696.3436003762203</v>
+        <v>487.5180226099435</v>
       </c>
       <c r="Y3" t="n">
-        <v>506.9238153597353</v>
+        <v>485.2430363127824</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.24882464404144</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24882464404144</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>29.24882464404144</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>29.24882464404144</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>29.24882464404144</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>29.24882464404144</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>29.24882464404144</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>29.24882464404144</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404144</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>29.24882464404144</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1579.362210729296</v>
+        <v>1436.011841818887</v>
       </c>
       <c r="C5" t="n">
-        <v>1210.399693788884</v>
+        <v>1277.362190489345</v>
       </c>
       <c r="D5" t="n">
-        <v>852.1339951821335</v>
+        <v>919.0964918825944</v>
       </c>
       <c r="E5" t="n">
-        <v>466.3457425838893</v>
+        <v>533.3082392843501</v>
       </c>
       <c r="F5" t="n">
-        <v>55.35983779428171</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="G5" t="n">
-        <v>43.36919653809305</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="H5" t="n">
-        <v>43.36919653809305</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O5" t="n">
         <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904652</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T5" t="n">
-        <v>2168.459826904652</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U5" t="n">
-        <v>2168.459826904652</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="V5" t="n">
-        <v>2168.459826904652</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.459826904652</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="X5" t="n">
-        <v>2168.459826904652</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="Y5" t="n">
-        <v>1965.962050793417</v>
+        <v>1436.011841818887</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>672.5286484590418</v>
+        <v>488.4170549896839</v>
       </c>
       <c r="C6" t="n">
-        <v>498.0756191779149</v>
+        <v>488.4170549896839</v>
       </c>
       <c r="D6" t="n">
-        <v>349.1412095166636</v>
+        <v>339.4826453284327</v>
       </c>
       <c r="E6" t="n">
-        <v>189.9037545112081</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="F6" t="n">
-        <v>43.36919653809305</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G6" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H6" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K6" t="n">
         <v>246.6448318504519</v>
       </c>
       <c r="L6" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M6" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N6" t="n">
         <v>1166.88538687358</v>
@@ -4664,34 +4664,34 @@
         <v>1458.244633128146</v>
       </c>
       <c r="P6" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q6" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R6" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="S6" t="n">
-        <v>1766.227047333487</v>
+        <v>1627.262386835204</v>
       </c>
       <c r="T6" t="n">
-        <v>1577.529912389473</v>
+        <v>1432.55206530918</v>
       </c>
       <c r="U6" t="n">
-        <v>1577.529912389473</v>
+        <v>1204.450475442444</v>
       </c>
       <c r="V6" t="n">
-        <v>1342.37780415773</v>
+        <v>969.2983672107016</v>
       </c>
       <c r="W6" t="n">
-        <v>1088.140447429529</v>
+        <v>864.4838922152849</v>
       </c>
       <c r="X6" t="n">
-        <v>880.2889472239958</v>
+        <v>656.632392009752</v>
       </c>
       <c r="Y6" t="n">
-        <v>672.5286484590418</v>
+        <v>656.632392009752</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>510.3351124607287</v>
+        <v>340.3757834483391</v>
       </c>
       <c r="C7" t="n">
-        <v>341.3989295328219</v>
+        <v>340.3757834483391</v>
       </c>
       <c r="D7" t="n">
-        <v>191.2822901204862</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="E7" t="n">
-        <v>43.36919653809305</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F7" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K7" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L7" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M7" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N7" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O7" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P7" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q7" t="n">
-        <v>510.3351124607287</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R7" t="n">
-        <v>510.3351124607287</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S7" t="n">
-        <v>510.3351124607287</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T7" t="n">
-        <v>510.3351124607287</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U7" t="n">
-        <v>510.3351124607287</v>
+        <v>520.289347040599</v>
       </c>
       <c r="V7" t="n">
-        <v>510.3351124607287</v>
+        <v>520.289347040599</v>
       </c>
       <c r="W7" t="n">
-        <v>510.3351124607287</v>
+        <v>340.3757834483391</v>
       </c>
       <c r="X7" t="n">
-        <v>510.3351124607287</v>
+        <v>340.3757834483391</v>
       </c>
       <c r="Y7" t="n">
-        <v>510.3351124607287</v>
+        <v>340.3757834483391</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1094.805967255866</v>
+        <v>796.7706312585599</v>
       </c>
       <c r="C8" t="n">
-        <v>725.8434503154547</v>
+        <v>796.7706312585599</v>
       </c>
       <c r="D8" t="n">
-        <v>725.8434503154547</v>
+        <v>796.7706312585599</v>
       </c>
       <c r="E8" t="n">
-        <v>725.8434503154547</v>
+        <v>410.9823786603156</v>
       </c>
       <c r="F8" t="n">
-        <v>436.6725935873982</v>
+        <v>48.11389420370719</v>
       </c>
       <c r="G8" t="n">
-        <v>424.878480865698</v>
+        <v>48.11389420370719</v>
       </c>
       <c r="H8" t="n">
-        <v>119.4903658344936</v>
+        <v>48.11389420370719</v>
       </c>
       <c r="I8" t="n">
-        <v>48.11389420370725</v>
+        <v>48.11389420370719</v>
       </c>
       <c r="J8" t="n">
-        <v>173.6006955371276</v>
+        <v>173.6006955371266</v>
       </c>
       <c r="K8" t="n">
-        <v>412.4113998844132</v>
+        <v>412.4113998844122</v>
       </c>
       <c r="L8" t="n">
-        <v>745.5789575721474</v>
+        <v>745.578957572146</v>
       </c>
       <c r="M8" t="n">
-        <v>1147.961497459646</v>
+        <v>1147.961497459644</v>
       </c>
       <c r="N8" t="n">
-        <v>1561.468815899351</v>
+        <v>1561.468815899349</v>
       </c>
       <c r="O8" t="n">
-        <v>1938.596789767465</v>
+        <v>1938.596789767462</v>
       </c>
       <c r="P8" t="n">
-        <v>2225.965789440902</v>
+        <v>2225.965789440899</v>
       </c>
       <c r="Q8" t="n">
-        <v>2393.595193823343</v>
+        <v>2393.59519382334</v>
       </c>
       <c r="R8" t="n">
-        <v>2405.694710185363</v>
+        <v>2405.694710185359</v>
       </c>
       <c r="S8" t="n">
-        <v>2405.694710185363</v>
+        <v>2278.038448903144</v>
       </c>
       <c r="T8" t="n">
-        <v>2405.694710185363</v>
+        <v>2278.038448903144</v>
       </c>
       <c r="U8" t="n">
-        <v>2152.103268130631</v>
+        <v>2278.038448903144</v>
       </c>
       <c r="V8" t="n">
-        <v>1821.04038078706</v>
+        <v>1946.975561559573</v>
       </c>
       <c r="W8" t="n">
-        <v>1468.271725516946</v>
+        <v>1946.975561559573</v>
       </c>
       <c r="X8" t="n">
-        <v>1094.805967255866</v>
+        <v>1573.509803298493</v>
       </c>
       <c r="Y8" t="n">
-        <v>1094.805967255866</v>
+        <v>1183.370471322682</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>677.2733461246561</v>
+        <v>726.829581952637</v>
       </c>
       <c r="C9" t="n">
-        <v>502.820316843529</v>
+        <v>639.5911585922479</v>
       </c>
       <c r="D9" t="n">
-        <v>353.8859071822778</v>
+        <v>490.6567489309966</v>
       </c>
       <c r="E9" t="n">
-        <v>194.6484521768223</v>
+        <v>331.4192939255411</v>
       </c>
       <c r="F9" t="n">
-        <v>48.11389420370725</v>
+        <v>184.8847359524261</v>
       </c>
       <c r="G9" t="n">
-        <v>48.11389420370725</v>
+        <v>48.11389420370719</v>
       </c>
       <c r="H9" t="n">
-        <v>48.11389420370725</v>
+        <v>48.11389420370719</v>
       </c>
       <c r="I9" t="n">
-        <v>48.11389420370725</v>
+        <v>48.11389420370719</v>
       </c>
       <c r="J9" t="n">
-        <v>104.0351264502479</v>
+        <v>104.0351264502477</v>
       </c>
       <c r="K9" t="n">
-        <v>277.7682440873346</v>
+        <v>277.7682440873343</v>
       </c>
       <c r="L9" t="n">
-        <v>557.6964019039219</v>
+        <v>557.6964019039215</v>
       </c>
       <c r="M9" t="n">
-        <v>903.7162268899298</v>
+        <v>903.716226889929</v>
       </c>
       <c r="N9" t="n">
-        <v>1273.302811944941</v>
+        <v>1273.30281194494</v>
       </c>
       <c r="O9" t="n">
-        <v>1589.182537471374</v>
+        <v>1589.182537471373</v>
       </c>
       <c r="P9" t="n">
-        <v>1823.370799411587</v>
+        <v>1823.370799411585</v>
       </c>
       <c r="Q9" t="n">
-        <v>1930.000254186843</v>
+        <v>1930.000254186841</v>
       </c>
       <c r="R9" t="n">
-        <v>1930.000254186843</v>
+        <v>1930.000254186841</v>
       </c>
       <c r="S9" t="n">
-        <v>1930.000254186843</v>
+        <v>1792.988746641013</v>
       </c>
       <c r="T9" t="n">
-        <v>1930.000254186843</v>
+        <v>1792.988746641013</v>
       </c>
       <c r="U9" t="n">
-        <v>1750.489947075155</v>
+        <v>1564.894074671393</v>
       </c>
       <c r="V9" t="n">
-        <v>1515.337838843412</v>
+        <v>1564.894074671393</v>
       </c>
       <c r="W9" t="n">
-        <v>1261.100482115211</v>
+        <v>1310.656717943192</v>
       </c>
       <c r="X9" t="n">
-        <v>1053.248981909678</v>
+        <v>1102.805217737659</v>
       </c>
       <c r="Y9" t="n">
-        <v>845.4886831447241</v>
+        <v>895.0449189727051</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>581.9048636376283</v>
+        <v>84.99722314992908</v>
       </c>
       <c r="C10" t="n">
-        <v>412.9686807097214</v>
+        <v>84.99722314992908</v>
       </c>
       <c r="D10" t="n">
-        <v>262.8520412973857</v>
+        <v>84.99722314992908</v>
       </c>
       <c r="E10" t="n">
-        <v>114.9389477149925</v>
+        <v>84.99722314992908</v>
       </c>
       <c r="F10" t="n">
-        <v>114.9389477149925</v>
+        <v>48.11389420370719</v>
       </c>
       <c r="G10" t="n">
-        <v>114.9389477149925</v>
+        <v>48.11389420370719</v>
       </c>
       <c r="H10" t="n">
-        <v>114.9389477149925</v>
+        <v>48.11389420370719</v>
       </c>
       <c r="I10" t="n">
-        <v>60.21895581212084</v>
+        <v>48.11389420370719</v>
       </c>
       <c r="J10" t="n">
-        <v>48.11389420370725</v>
+        <v>48.11389420370719</v>
       </c>
       <c r="K10" t="n">
-        <v>107.4998553139098</v>
+        <v>107.4998553139097</v>
       </c>
       <c r="L10" t="n">
-        <v>213.3992373663744</v>
+        <v>213.3992373663741</v>
       </c>
       <c r="M10" t="n">
-        <v>328.3135705658682</v>
+        <v>328.3135705658678</v>
       </c>
       <c r="N10" t="n">
-        <v>448.3530236739899</v>
+        <v>448.3530236739894</v>
       </c>
       <c r="O10" t="n">
-        <v>538.9157986502149</v>
+        <v>538.9157986502142</v>
       </c>
       <c r="P10" t="n">
-        <v>597.3459267107238</v>
+        <v>597.345926710723</v>
       </c>
       <c r="Q10" t="n">
-        <v>581.9048636376283</v>
+        <v>597.345926710723</v>
       </c>
       <c r="R10" t="n">
-        <v>581.9048636376283</v>
+        <v>597.345926710723</v>
       </c>
       <c r="S10" t="n">
-        <v>581.9048636376283</v>
+        <v>597.345926710723</v>
       </c>
       <c r="T10" t="n">
-        <v>581.9048636376283</v>
+        <v>374.1187356703691</v>
       </c>
       <c r="U10" t="n">
-        <v>581.9048636376283</v>
+        <v>84.99722314992908</v>
       </c>
       <c r="V10" t="n">
-        <v>581.9048636376283</v>
+        <v>84.99722314992908</v>
       </c>
       <c r="W10" t="n">
-        <v>581.9048636376283</v>
+        <v>84.99722314992908</v>
       </c>
       <c r="X10" t="n">
-        <v>581.9048636376283</v>
+        <v>84.99722314992908</v>
       </c>
       <c r="Y10" t="n">
-        <v>581.9048636376283</v>
+        <v>84.99722314992908</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1636.624422581789</v>
+        <v>1274.245689520978</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2961.784676410102</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2609.016021139988</v>
+        <v>2424.450619821991</v>
       </c>
       <c r="X11" t="n">
-        <v>2413.363594621723</v>
+        <v>2050.984861560912</v>
       </c>
       <c r="Y11" t="n">
-        <v>2023.224262645911</v>
+        <v>1660.8455295851</v>
       </c>
     </row>
     <row r="12">
@@ -5096,70 +5096,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>342.3669689068684</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="C13" t="n">
-        <v>342.3669689068684</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D13" t="n">
-        <v>192.2503294945327</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5199,52 +5199,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O13" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U13" t="n">
-        <v>631.784138943829</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V13" t="n">
-        <v>631.784138943829</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="W13" t="n">
-        <v>342.3669689068684</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="X13" t="n">
-        <v>342.3669689068684</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="Y13" t="n">
-        <v>342.3669689068684</v>
+        <v>342.3669689068675</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1528.069587875904</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C14" t="n">
-        <v>1159.107070935492</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D14" t="n">
-        <v>905.2831725805665</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E14" t="n">
-        <v>519.4949199823222</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>108.5090151927147</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
         <v>108.5090151927147</v>
@@ -5278,10 +5278,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5290,13 +5290,13 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5317,13 +5317,13 @@
         <v>2678.274518176917</v>
       </c>
       <c r="W14" t="n">
-        <v>2678.274518176917</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X14" t="n">
-        <v>2304.808759915837</v>
+        <v>2048.39542574861</v>
       </c>
       <c r="Y14" t="n">
-        <v>1914.669427940025</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.156415538731</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>507.4345062145379</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C16" t="n">
-        <v>507.4345062145379</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D16" t="n">
-        <v>357.3178668022022</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5436,52 +5436,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K16" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O16" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T16" t="n">
-        <v>507.4345062145379</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U16" t="n">
-        <v>507.4345062145379</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V16" t="n">
-        <v>507.4345062145379</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W16" t="n">
-        <v>507.4345062145379</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X16" t="n">
-        <v>507.4345062145379</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y16" t="n">
-        <v>507.4345062145379</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1179.52858457759</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C17" t="n">
-        <v>810.5660676371781</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>452.3003690304276</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>66.51211643218342</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>66.51211643218342</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
         <v>66.51211643218342</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3267.095534218452</v>
+        <v>3113.388998905705</v>
       </c>
       <c r="U17" t="n">
-        <v>3013.565057492288</v>
+        <v>3113.388998905705</v>
       </c>
       <c r="V17" t="n">
-        <v>2682.502170148718</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="W17" t="n">
-        <v>2329.733514878603</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="X17" t="n">
-        <v>1956.267756617523</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y17" t="n">
-        <v>1566.128424641711</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="18">
@@ -5606,13 +5606,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>384.3315924698002</v>
+        <v>844.171363847817</v>
       </c>
       <c r="C19" t="n">
-        <v>384.3315924698002</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D19" t="n">
-        <v>234.2149530574645</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E19" t="n">
-        <v>234.2149530574645</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218342</v>
@@ -5697,28 +5697,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R19" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S19" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T19" t="n">
-        <v>831.0565485757124</v>
+        <v>844.171363847817</v>
       </c>
       <c r="U19" t="n">
-        <v>831.0565485757124</v>
+        <v>844.171363847817</v>
       </c>
       <c r="V19" t="n">
-        <v>786.77263644357</v>
+        <v>844.171363847817</v>
       </c>
       <c r="W19" t="n">
-        <v>786.77263644357</v>
+        <v>844.171363847817</v>
       </c>
       <c r="X19" t="n">
-        <v>786.77263644357</v>
+        <v>844.171363847817</v>
       </c>
       <c r="Y19" t="n">
-        <v>565.9800573000399</v>
+        <v>844.171363847817</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1274.539111149739</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C20" t="n">
-        <v>1274.539111149739</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D20" t="n">
-        <v>916.2734125429886</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E20" t="n">
-        <v>530.4851599447443</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>530.4851599447443</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>115.4127097897407</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450752</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W20" t="n">
-        <v>2424.744041450752</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X20" t="n">
-        <v>2051.278283189672</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y20" t="n">
-        <v>1661.138951213861</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5837,7 +5837,7 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5849,7 +5849,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218339</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218339</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218339</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218339</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
         <v>332.3555681596504</v>
@@ -5940,22 +5940,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T22" t="n">
-        <v>791.9479363426664</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U22" t="n">
-        <v>502.8450694683099</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V22" t="n">
-        <v>248.1605812624231</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W22" t="n">
-        <v>248.1605812624231</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X22" t="n">
-        <v>248.1605812624231</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y22" t="n">
-        <v>248.1605812624231</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1712.341567565137</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C23" t="n">
-        <v>1343.379050624725</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D23" t="n">
-        <v>985.1133520179749</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E23" t="n">
-        <v>599.3250994197306</v>
+        <v>268.2622120761617</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>268.2622120761617</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218339</v>
+        <v>268.2622120761617</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V23" t="n">
-        <v>3215.315153136265</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W23" t="n">
-        <v>2862.54649786615</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.08073960507</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y23" t="n">
-        <v>2098.941407629259</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6086,7 +6086,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>361.3151575124868</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="C25" t="n">
-        <v>361.3151575124868</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="D25" t="n">
-        <v>361.3151575124868</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="E25" t="n">
-        <v>213.4020639300937</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218339</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R25" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S25" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T25" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U25" t="n">
-        <v>920.8870058181845</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V25" t="n">
-        <v>920.8870058181845</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W25" t="n">
-        <v>770.9531732407439</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="X25" t="n">
-        <v>542.9636223427266</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="Y25" t="n">
-        <v>542.9636223427266</v>
+        <v>87.6824807009811</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1605.601998493311</v>
+        <v>1561.900772669911</v>
       </c>
       <c r="C26" t="n">
-        <v>1236.639481552899</v>
+        <v>1561.900772669911</v>
       </c>
       <c r="D26" t="n">
-        <v>892.5704713767946</v>
+        <v>1203.635074063161</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>817.8468214649163</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>406.8609166753087</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
         <v>3266.588755052368</v>
@@ -6259,19 +6259,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V26" t="n">
-        <v>2755.806928794324</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W26" t="n">
-        <v>2755.806928794324</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X26" t="n">
-        <v>2382.341170533244</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y26" t="n">
-        <v>1992.201838557432</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="27">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C28" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D28" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E28" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
         <v>66.51211643218342</v>
@@ -6417,19 +6417,19 @@
         <v>699.1203903877106</v>
       </c>
       <c r="U28" t="n">
-        <v>699.1203903877106</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="V28" t="n">
-        <v>699.1203903877106</v>
+        <v>155.3330353074673</v>
       </c>
       <c r="W28" t="n">
-        <v>699.1203903877106</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X28" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y28" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="29">
@@ -6463,10 +6463,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6478,28 +6478,28 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q29" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T29" t="n">
-        <v>3155.791869823214</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U29" t="n">
-        <v>3155.791869823214</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V29" t="n">
-        <v>3155.791869823214</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="W29" t="n">
         <v>3155.791869823214</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C31" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D31" t="n">
-        <v>361.3151575124868</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E31" t="n">
-        <v>213.4020639300937</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F31" t="n">
         <v>66.51211643218339</v>
@@ -6651,22 +6651,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181845</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181845</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V31" t="n">
-        <v>920.8870058181845</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W31" t="n">
-        <v>862.0164446829692</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="X31" t="n">
-        <v>862.0164446829692</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y31" t="n">
-        <v>862.0164446829692</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="32">
@@ -6676,61 +6676,61 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1252.833343223196</v>
+        <v>1979.067756754391</v>
       </c>
       <c r="C32" t="n">
-        <v>883.8708262827843</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D32" t="n">
-        <v>525.6051276760338</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>139.8168750777896</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>139.8168750777896</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
         <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
         <v>2755.806928794324</v>
@@ -6739,13 +6739,13 @@
         <v>2755.806928794324</v>
       </c>
       <c r="W32" t="n">
-        <v>2403.038273524209</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X32" t="n">
-        <v>2029.572515263129</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y32" t="n">
-        <v>1639.433183287318</v>
+        <v>2365.667596818512</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6797,34 +6797,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.5121164321834</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="C34" t="n">
-        <v>66.5121164321834</v>
+        <v>241.0813405854472</v>
       </c>
       <c r="D34" t="n">
-        <v>66.5121164321834</v>
+        <v>90.96470117311151</v>
       </c>
       <c r="E34" t="n">
-        <v>66.5121164321834</v>
+        <v>90.96470117311151</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5121164321834</v>
+        <v>90.96470117311151</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>90.96470117311151</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K34" t="n">
         <v>176.6457242372932</v>
@@ -6888,22 +6888,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T34" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U34" t="n">
-        <v>631.7841389438281</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="V34" t="n">
-        <v>631.7841389438281</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="W34" t="n">
-        <v>342.3669689068675</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="X34" t="n">
-        <v>114.3774180088502</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.5121164321834</v>
+        <v>410.0175235133541</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1859.132475219474</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C35" t="n">
-        <v>1490.169958279063</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D35" t="n">
-        <v>1131.904259672312</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E35" t="n">
-        <v>746.116007074068</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F35" t="n">
-        <v>335.1301022844604</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6937,19 +6937,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6973,16 +6973,16 @@
         <v>3009.337405520488</v>
       </c>
       <c r="V35" t="n">
-        <v>3009.337405520488</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W35" t="n">
-        <v>3009.337405520488</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X35" t="n">
-        <v>2635.871647259408</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y35" t="n">
-        <v>2245.732315283596</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>213.4020639300938</v>
+        <v>478.3278112441805</v>
       </c>
       <c r="C37" t="n">
-        <v>213.4020639300938</v>
+        <v>478.3278112441805</v>
       </c>
       <c r="D37" t="n">
-        <v>213.4020639300938</v>
+        <v>478.3278112441805</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>330.4147176617873</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218342</v>
+        <v>183.524770163877</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>183.524770163877</v>
       </c>
       <c r="H37" t="n">
         <v>66.51211643218342</v>
@@ -7134,13 +7134,13 @@
         <v>699.1203903877106</v>
       </c>
       <c r="W37" t="n">
-        <v>409.70322035075</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="X37" t="n">
-        <v>409.70322035075</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="Y37" t="n">
-        <v>213.4020639300938</v>
+        <v>478.3278112441805</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1678.62132134232</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C38" t="n">
         <v>1678.62132134232</v>
@@ -7174,25 +7174,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7210,16 +7210,16 @@
         <v>2961.784676410102</v>
       </c>
       <c r="V38" t="n">
-        <v>2828.826251643334</v>
+        <v>2786.952333616968</v>
       </c>
       <c r="W38" t="n">
-        <v>2828.826251643334</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="X38" t="n">
-        <v>2455.360493382254</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y38" t="n">
-        <v>2065.221161406442</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="39">
@@ -7244,34 +7244,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7332,52 +7332,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O40" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R40" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S40" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U40" t="n">
-        <v>631.784138943829</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V40" t="n">
-        <v>583.9188373671614</v>
+        <v>758.3703304429139</v>
       </c>
       <c r="W40" t="n">
-        <v>294.5016673302007</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="X40" t="n">
-        <v>66.51211643218342</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.51211643218342</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1822.632236038043</v>
+        <v>1261.532988317206</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.669719097631</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E41" t="n">
         <v>892.5704713767946</v>
@@ -7402,61 +7402,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339056</v>
+        <v>2411.73791861822</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077976</v>
+        <v>2038.27216035714</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102165</v>
+        <v>1648.132828381328</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372932</v>
@@ -7599,22 +7599,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T43" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U43" t="n">
-        <v>631.7841389438281</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="V43" t="n">
-        <v>631.7841389438281</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="W43" t="n">
-        <v>342.3669689068675</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="X43" t="n">
-        <v>287.3046955757135</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="Y43" t="n">
-        <v>66.51211643218342</v>
+        <v>699.1203903877106</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1853.982617026598</v>
+        <v>2011.826014609888</v>
       </c>
       <c r="C44" t="n">
-        <v>1485.020100086186</v>
+        <v>1642.863497669476</v>
       </c>
       <c r="D44" t="n">
-        <v>1126.754401479436</v>
+        <v>1284.597799062726</v>
       </c>
       <c r="E44" t="n">
-        <v>740.9661488811912</v>
+        <v>898.8095464644816</v>
       </c>
       <c r="F44" t="n">
-        <v>329.9802440915836</v>
+        <v>487.8236416748741</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912088</v>
@@ -7666,34 +7666,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410102</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V44" t="n">
-        <v>2630.721789066531</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W44" t="n">
-        <v>2630.721789066531</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="X44" t="n">
-        <v>2630.721789066531</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="Y44" t="n">
-        <v>2240.582457090719</v>
+        <v>2398.42585467401</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228006</v>
@@ -7733,7 +7733,7 @@
         <v>398.4535849031475</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>680.3679798527295</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C46" t="n">
-        <v>511.4317969248226</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D46" t="n">
-        <v>361.3151575124869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L46" t="n">
         <v>332.3555681596505</v>
@@ -7836,22 +7836,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>901.1605589962596</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U46" t="n">
-        <v>901.1605589962596</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V46" t="n">
-        <v>901.1605589962596</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W46" t="n">
-        <v>901.1605589962596</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X46" t="n">
-        <v>901.1605589962596</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y46" t="n">
-        <v>680.3679798527295</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
   </sheetData>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>25.91829388988677</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>63.64367339871032</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>161.715381551093</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>204.5585635023744</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22640,13 +22640,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>64.1693959945996</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.4304593431148</v>
       </c>
     </row>
     <row r="4">
@@ -22704,34 +22704,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,34 +22746,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>154.5643095410617</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>208.2097369547608</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22798,10 +22798,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22840,16 +22840,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22865,7 +22865,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22874,16 +22874,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22925,13 +22925,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>147.9286529154571</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>108.4085703802538</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23023,25 +23023,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>47.63624612966908</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.6761715944833</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>302.3342338808923</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>70.6627069144786</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,16 +23074,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.2205572464783</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0555276341844</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23102,7 +23102,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>86.34245986153053</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23117,10 +23117,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>93.49542143817378</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>32.71530508318207</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.20549727320282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.343620179082</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>108.9065523661716</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3642267354451</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.7638628228271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>106.5295869551744</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>11.9840109923295</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,13 +23223,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>15.28665244236464</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>104.1486779823911</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>195.6667364159067</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23238,16 +23238,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>348.9504813049389</v>
       </c>
       <c r="X11" t="n">
-        <v>176.0351984253869</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>38.90553206301138</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>21.95313171484341</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23500,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>103.3973822493068</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>95.39176789185819</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23658,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>3.291284694571402</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23743,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>145.9927856228088</v>
+        <v>103.0110774513655</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983812</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>143.6004637255053</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>208.296570313007</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>246.1961769633387</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>310.40113776314</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24180,13 +24180,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>91.8992704954062</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>290.3129182374932</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>94.87516969978199</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>145.0671476329185</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24420,16 +24420,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>138.0885040849248</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>14.05472154633952</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>115.5533431856854</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,13 +24499,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>198.59028865006</v>
       </c>
       <c r="X28" t="n">
-        <v>39.89794786077806</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24733,7 +24733,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>35.80215787152434</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -24742,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>181.1251564493176</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24891,16 +24891,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500599</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>228.2411428127278</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>26.25399094013238</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>338.3500145943033</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -24979,10 +24979,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25016,7 +25016,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>120.546956020802</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983812</v>
@@ -25128,7 +25128,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.1980047911947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>298.7931398394029</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>144.9899196596992</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -25213,10 +25213,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>28.91248771994417</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.24650849564517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>196.1234179510345</v>
+        <v>154.6682391049326</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -25605,19 +25605,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>204.750994762927</v>
+        <v>91.24613470231006</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>181.1251564493164</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>227.1771453250293</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>9.751660162245685</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -25839,22 +25839,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>171.1980047911947</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>150.0882792706472</v>
+        <v>330.0080098234361</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26076,22 +26076,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>200.0197669224632</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>985250.1238371405</v>
+        <v>399935.1469234779</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>985250.1238371405</v>
+        <v>619807.878261319</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>985250.1238371405</v>
+        <v>654641.2904718831</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>789698.345684999</v>
+        <v>789698.3456849989</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789698.345684999</v>
+        <v>789698.3456849991</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>789698.345684999</v>
+        <v>789698.3456849991</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>789698.3456849988</v>
+        <v>789698.3456849991</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>789698.3456849989</v>
+        <v>789698.3456849991</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>789698.3456849991</v>
+        <v>789698.345684999</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>789698.3456849989</v>
+        <v>789698.345684999</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>789698.345684999</v>
+        <v>789698.3456849989</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>789698.3456849991</v>
+        <v>789698.345684999</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253557</v>
+        <v>183303.6090065939</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253555</v>
+        <v>284078.610869771</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253557</v>
+        <v>300043.9247996128</v>
       </c>
       <c r="E2" t="n">
         <v>361945.0751056243</v>
       </c>
       <c r="F2" t="n">
-        <v>361945.0751056243</v>
+        <v>361945.0751056244</v>
       </c>
       <c r="G2" t="n">
-        <v>361945.0751056243</v>
+        <v>361945.0751056244</v>
       </c>
       <c r="H2" t="n">
-        <v>361945.0751056243</v>
+        <v>361945.0751056245</v>
       </c>
       <c r="I2" t="n">
-        <v>361945.0751056243</v>
+        <v>361945.0751056245</v>
       </c>
       <c r="J2" t="n">
-        <v>361945.0751056243</v>
+        <v>361945.0751056244</v>
       </c>
       <c r="K2" t="n">
         <v>361945.0751056243</v>
       </c>
       <c r="L2" t="n">
-        <v>361945.0751056245</v>
+        <v>361945.0751056243</v>
       </c>
       <c r="M2" t="n">
-        <v>361945.0751056243</v>
+        <v>361945.0751056244</v>
       </c>
       <c r="N2" t="n">
-        <v>361945.0751056245</v>
+        <v>361945.0751056244</v>
       </c>
       <c r="O2" t="n">
         <v>361945.0751056244</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
         <v>392510.2442861773</v>
       </c>
       <c r="D3" t="n">
-        <v>59871.45719830041</v>
+        <v>59871.45719829983</v>
       </c>
       <c r="E3" t="n">
-        <v>219439.6828815205</v>
+        <v>219439.6828815208</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,28 +26386,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854472</v>
+        <v>49064.94472854457</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487762</v>
+        <v>91259.95686487763</v>
       </c>
       <c r="L3" t="n">
-        <v>15010.50346109959</v>
+        <v>15010.50346109941</v>
       </c>
       <c r="M3" t="n">
-        <v>57311.38215281469</v>
+        <v>57311.38215281486</v>
       </c>
       <c r="N3" t="n">
-        <v>3.139184627798386e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>137.8001180723341</v>
       </c>
       <c r="C4" t="n">
-        <v>174202.9900888978</v>
+        <v>384.3219252469135</v>
       </c>
       <c r="D4" t="n">
-        <v>157675.7383646794</v>
+        <v>425.207550599383</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.646989006123</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
         <v>584.646989006123</v>
@@ -26438,7 +26438,7 @@
         <v>584.646989006123</v>
       </c>
       <c r="I4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
         <v>584.646989006123</v>
@@ -26450,13 +26450,13 @@
         <v>584.646989006123</v>
       </c>
       <c r="M4" t="n">
+        <v>584.6469890061232</v>
+      </c>
+      <c r="N4" t="n">
         <v>584.646989006123</v>
       </c>
-      <c r="N4" t="n">
-        <v>584.6469890061232</v>
-      </c>
       <c r="O4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
         <v>584.6469890061231</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>89860.11994103189</v>
+        <v>89860.11994103184</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26487,10 +26487,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
         <v>74306.3405613933</v>
@@ -26499,7 +26499,7 @@
         <v>74306.34056139327</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26508,10 +26508,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-475306.2943412334</v>
+        <v>-466396.3002458409</v>
       </c>
       <c r="C6" t="n">
-        <v>-200339.3428055918</v>
+        <v>-194776.3752091417</v>
       </c>
       <c r="D6" t="n">
-        <v>144165.6579213439</v>
+        <v>149198.3717068375</v>
       </c>
       <c r="E6" t="n">
-        <v>63540.40929553477</v>
+        <v>67207.0051358871</v>
       </c>
       <c r="F6" t="n">
-        <v>282980.0921770552</v>
+        <v>286646.688017408</v>
       </c>
       <c r="G6" t="n">
-        <v>282980.0921770555</v>
+        <v>286646.6880174082</v>
       </c>
       <c r="H6" t="n">
-        <v>282980.0921770553</v>
+        <v>286646.6880174081</v>
       </c>
       <c r="I6" t="n">
-        <v>282980.0921770553</v>
+        <v>286646.688017408</v>
       </c>
       <c r="J6" t="n">
-        <v>233915.1474485105</v>
+        <v>237581.7432888634</v>
       </c>
       <c r="K6" t="n">
-        <v>191720.1353121777</v>
+        <v>195386.7311525303</v>
       </c>
       <c r="L6" t="n">
-        <v>267969.5887159558</v>
+        <v>271636.1845563085</v>
       </c>
       <c r="M6" t="n">
-        <v>225668.7100242406</v>
+        <v>229335.3058645931</v>
       </c>
       <c r="N6" t="n">
-        <v>282980.0921770551</v>
+        <v>286646.688017408</v>
       </c>
       <c r="O6" t="n">
-        <v>282980.0921770557</v>
+        <v>286646.688017408</v>
       </c>
       <c r="P6" t="n">
-        <v>282980.0921770554</v>
+        <v>286646.6880174079</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.710664537684</v>
       </c>
       <c r="D3" t="n">
-        <v>902.1082727621277</v>
+        <v>902.1082727621273</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26773,7 +26773,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261631</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>601.4236775463406</v>
+        <v>601.4236775463398</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022926</v>
@@ -26807,19 +26807,19 @@
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
@@ -26828,10 +26828,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
         <v>305.2407236247793</v>
       </c>
       <c r="D3" t="n">
-        <v>48.39760822444362</v>
+        <v>48.39760822444327</v>
       </c>
       <c r="E3" t="n">
         <v>187.6684278311708</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26995,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-4.41041423633636e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>354.589369559843</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="D4" t="n">
-        <v>59.30872082017757</v>
+        <v>59.30872082017665</v>
       </c>
       <c r="E4" t="n">
-        <v>229.977777855952</v>
+        <v>229.9777778559528</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598428</v>
+        <v>354.5893695598429</v>
       </c>
       <c r="L4" t="n">
-        <v>59.30872082017768</v>
+        <v>59.30872082017699</v>
       </c>
       <c r="M4" t="n">
-        <v>229.9777778559521</v>
+        <v>229.9777778559528</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>354.589369559843</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>59.30872082017757</v>
+        <v>59.30872082017665</v>
       </c>
       <c r="M4" t="n">
-        <v>229.977777855952</v>
+        <v>229.9777778559528</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753913</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>161.9552295181497</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27469,16 +27469,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>152.551824397308</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.5806260587824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>185.7651403059309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>5.953054716190252</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,19 +27785,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.73999905018391</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>120.5968975809356</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>126.3796986693931</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.2205572464783</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4031333312317</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>93.49542143817376</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>32.71530508318203</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>25.20549727320277</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>135.6413924703698</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.343620179082</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>48.09852120935247</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3642267354451</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.7638628228271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>52.35679497133139</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>104.1486779823911</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>195.6667364159067</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.9949191299503</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2302973952356</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,28 +31047,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31077,13 +31077,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31138,7 +31138,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31147,22 +31147,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31293,10 +31293,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N5" t="n">
         <v>612.3808166839008</v>
@@ -31305,22 +31305,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R5" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T5" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,7 +31363,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J6" t="n">
         <v>173.4885040076062</v>
@@ -31372,19 +31372,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884505</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q6" t="n">
         <v>234.3999545349506</v>
@@ -31393,10 +31393,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T6" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U6" t="n">
         <v>0.1208081129062761</v>
@@ -31442,22 +31442,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8411121001569</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K7" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O7" t="n">
         <v>217.5982526595396</v>
@@ -31469,13 +31469,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S7" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U7" t="n">
         <v>0.08397154077419852</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.626565920651767</v>
+        <v>3.626565920651765</v>
       </c>
       <c r="H8" t="n">
-        <v>37.14056823487492</v>
+        <v>37.1405682348749</v>
       </c>
       <c r="I8" t="n">
-        <v>139.8131826559274</v>
+        <v>139.8131826559273</v>
       </c>
       <c r="J8" t="n">
-        <v>307.8002493079182</v>
+        <v>307.800249307918</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3127847291076</v>
+        <v>461.3127847291074</v>
       </c>
       <c r="L8" t="n">
-        <v>572.2993015232543</v>
+        <v>572.2993015232539</v>
       </c>
       <c r="M8" t="n">
-        <v>636.793243214645</v>
+        <v>636.7932432146447</v>
       </c>
       <c r="N8" t="n">
-        <v>647.097223636697</v>
+        <v>647.0972236366966</v>
       </c>
       <c r="O8" t="n">
-        <v>611.0355587632159</v>
+        <v>611.0355587632156</v>
       </c>
       <c r="P8" t="n">
-        <v>521.5047125971253</v>
+        <v>521.504712597125</v>
       </c>
       <c r="Q8" t="n">
-        <v>391.6283205637838</v>
+        <v>391.6283205637836</v>
       </c>
       <c r="R8" t="n">
-        <v>227.8072715131418</v>
+        <v>227.8072715131416</v>
       </c>
       <c r="S8" t="n">
-        <v>82.64037091685222</v>
+        <v>82.64037091685218</v>
       </c>
       <c r="T8" t="n">
-        <v>15.87529231765312</v>
+        <v>15.87529231765311</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2901252736521413</v>
+        <v>0.2901252736521411</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.940383831978916</v>
+        <v>1.940383831978915</v>
       </c>
       <c r="H9" t="n">
-        <v>18.74002279832269</v>
+        <v>18.74002279832268</v>
       </c>
       <c r="I9" t="n">
-        <v>66.80707491681797</v>
+        <v>66.80707491681792</v>
       </c>
       <c r="J9" t="n">
-        <v>183.3237198449905</v>
+        <v>183.3237198449904</v>
       </c>
       <c r="K9" t="n">
-        <v>313.3294365875779</v>
+        <v>313.3294365875778</v>
       </c>
       <c r="L9" t="n">
-        <v>421.310094746124</v>
+        <v>421.3100947461238</v>
       </c>
       <c r="M9" t="n">
-        <v>491.6490086553596</v>
+        <v>491.6490086553593</v>
       </c>
       <c r="N9" t="n">
-        <v>504.6614949671832</v>
+        <v>504.6614949671829</v>
       </c>
       <c r="O9" t="n">
-        <v>461.666674269124</v>
+        <v>461.6666742691237</v>
       </c>
       <c r="P9" t="n">
-        <v>370.5282073539389</v>
+        <v>370.5282073539387</v>
       </c>
       <c r="Q9" t="n">
-        <v>247.688294061028</v>
+        <v>247.6882940610279</v>
       </c>
       <c r="R9" t="n">
-        <v>120.4740066907612</v>
+        <v>120.4740066907611</v>
       </c>
       <c r="S9" t="n">
-        <v>36.04177863346801</v>
+        <v>36.04177863346798</v>
       </c>
       <c r="T9" t="n">
-        <v>7.821108515739576</v>
+        <v>7.821108515739573</v>
       </c>
       <c r="U9" t="n">
         <v>0.1276568310512445</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.626752623013673</v>
+        <v>1.626752623013672</v>
       </c>
       <c r="H10" t="n">
         <v>14.46330968461248</v>
       </c>
       <c r="I10" t="n">
-        <v>48.92088797208392</v>
+        <v>48.9208879720839</v>
       </c>
       <c r="J10" t="n">
-        <v>115.0114104470667</v>
+        <v>115.0114104470666</v>
       </c>
       <c r="K10" t="n">
-        <v>188.9990774737703</v>
+        <v>188.9990774737702</v>
       </c>
       <c r="L10" t="n">
-        <v>241.8537490615055</v>
+        <v>241.8537490615054</v>
       </c>
       <c r="M10" t="n">
-        <v>255.0008679874978</v>
+        <v>255.0008679874977</v>
       </c>
       <c r="N10" t="n">
-        <v>248.9375173017198</v>
+        <v>248.9375173017196</v>
       </c>
       <c r="O10" t="n">
-        <v>229.9340889328781</v>
+        <v>229.934088932878</v>
       </c>
       <c r="P10" t="n">
-        <v>196.748335423399</v>
+        <v>196.7483354233989</v>
       </c>
       <c r="Q10" t="n">
-        <v>136.2183491870813</v>
+        <v>136.2183491870812</v>
       </c>
       <c r="R10" t="n">
-        <v>73.14471339477839</v>
+        <v>73.14471339477836</v>
       </c>
       <c r="S10" t="n">
-        <v>28.34986162106554</v>
+        <v>28.34986162106553</v>
       </c>
       <c r="T10" t="n">
-        <v>6.950670298331145</v>
+        <v>6.950670298331142</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08873196125529134</v>
+        <v>0.0887319612552913</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781676</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32326,7 +32326,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O18" t="n">
         <v>557.7086478970249</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32493,7 +32493,7 @@
         <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781694</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
         <v>275.1987363563568</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33517,7 +33517,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987486</v>
@@ -33666,7 +33666,7 @@
         <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490575</v>
       </c>
       <c r="N35" t="n">
         <v>781.7148990095022</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34152,7 +34152,7 @@
         <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781699</v>
       </c>
       <c r="R41" t="n">
         <v>275.1987363563568</v>
@@ -34210,7 +34210,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N5" t="n">
         <v>382.9677530873099</v>
@@ -34953,7 +34953,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q5" t="n">
         <v>148.31198861839</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K6" t="n">
         <v>158.6780472169987</v>
@@ -35023,7 +35023,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N6" t="n">
         <v>346.2449737319509</v>
@@ -35035,7 +35035,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,19 +35096,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L7" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M7" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N7" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O7" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P7" t="n">
         <v>48.46489236084162</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>126.7543447812319</v>
+        <v>126.7543447812317</v>
       </c>
       <c r="K8" t="n">
-        <v>241.222933684127</v>
+        <v>241.2229336841268</v>
       </c>
       <c r="L8" t="n">
-        <v>336.532886553267</v>
+        <v>336.5328865532667</v>
       </c>
       <c r="M8" t="n">
-        <v>406.4470099873723</v>
+        <v>406.447009987372</v>
       </c>
       <c r="N8" t="n">
-        <v>417.6841600401061</v>
+        <v>417.6841600401057</v>
       </c>
       <c r="O8" t="n">
-        <v>380.9373473415292</v>
+        <v>380.9373473415288</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2717168418557</v>
+        <v>290.2717168418555</v>
       </c>
       <c r="Q8" t="n">
-        <v>169.3226306893343</v>
+        <v>169.3226306893341</v>
       </c>
       <c r="R8" t="n">
-        <v>12.22173369900963</v>
+        <v>12.22173369900952</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>56.48609317832384</v>
+        <v>56.48609317832376</v>
       </c>
       <c r="K9" t="n">
-        <v>175.4879976132189</v>
+        <v>175.4879976132188</v>
       </c>
       <c r="L9" t="n">
-        <v>282.7557149662498</v>
+        <v>282.7557149662496</v>
       </c>
       <c r="M9" t="n">
-        <v>349.5149747333413</v>
+        <v>349.514974733341</v>
       </c>
       <c r="N9" t="n">
-        <v>373.3197828838498</v>
+        <v>373.3197828838496</v>
       </c>
       <c r="O9" t="n">
-        <v>319.0704298246795</v>
+        <v>319.0704298246793</v>
       </c>
       <c r="P9" t="n">
-        <v>236.5537999396087</v>
+        <v>236.5537999396084</v>
       </c>
       <c r="Q9" t="n">
-        <v>107.7065199750065</v>
+        <v>107.7065199750064</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>59.98581930323493</v>
+        <v>59.98581930323482</v>
       </c>
       <c r="L10" t="n">
-        <v>106.9690727802673</v>
+        <v>106.9690727802671</v>
       </c>
       <c r="M10" t="n">
-        <v>116.0750840398927</v>
+        <v>116.0750840398926</v>
       </c>
       <c r="N10" t="n">
-        <v>121.2519728364866</v>
+        <v>121.2519728364864</v>
       </c>
       <c r="O10" t="n">
-        <v>91.47755048103534</v>
+        <v>91.47755048103522</v>
       </c>
       <c r="P10" t="n">
-        <v>59.02033137425141</v>
+        <v>59.02033137425133</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K13" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037181</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525805</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222472</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K25" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L25" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M25" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N25" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O25" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127271</v>
@@ -37314,7 +37314,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129113</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K40" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L40" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M40" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O40" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037204</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222472</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597745</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
